--- a/data/trans_dic/P64D1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P64D1_R-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.2921570832938682</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3213464576857611</v>
+        <v>0.3213464576857613</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3058294553025029</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2463274073180063</v>
+        <v>0.2435350565029845</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2794160631325326</v>
+        <v>0.2786135862624133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2735013971245174</v>
+        <v>0.2727784479656977</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3443228585129893</v>
+        <v>0.3476780158629685</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3659491605351392</v>
+        <v>0.3694317608769359</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.34052501719933</v>
+        <v>0.3432209583569512</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.332015524136108</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2719109202622275</v>
+        <v>0.2719109202622274</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1698427033791509</v>
+        <v>0.1755594045665814</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2835311616857587</v>
+        <v>0.2776626794977853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.235413203081333</v>
+        <v>0.2372082139791283</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2728250687701564</v>
+        <v>0.2726359255924087</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3844524140290404</v>
+        <v>0.3863071233270949</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.309328909204842</v>
+        <v>0.3095851281918989</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.4807010866052521</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3190183355725862</v>
+        <v>0.3190183355725861</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2117757142522144</v>
+        <v>0.215122865577342</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.388511988969051</v>
+        <v>0.3863572670200184</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2713943856271998</v>
+        <v>0.2698777686634536</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3361348712091796</v>
+        <v>0.3314355766670028</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5793978594275218</v>
+        <v>0.5722997879146775</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3721483793968276</v>
+        <v>0.3744370565181936</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.2534595837452335</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.406129796942244</v>
+        <v>0.4061297969422441</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.319874386224858</v>
+        <v>0.3198743862248581</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.217161146448181</v>
+        <v>0.2176739576355362</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3653960419478225</v>
+        <v>0.3654374618287882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2917388260087345</v>
+        <v>0.2918331776824444</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2962428900732636</v>
+        <v>0.2984134438262963</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4509753028848605</v>
+        <v>0.4440406021440576</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3521503961311485</v>
+        <v>0.3520878592660571</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.3780574907131973</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2748969572900824</v>
+        <v>0.2748969572900823</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1209823082118503</v>
+        <v>0.1203046570169698</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3291519852939442</v>
+        <v>0.3329570722669212</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2359047389770111</v>
+        <v>0.2409810862558799</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2323136784572454</v>
+        <v>0.2298341048702988</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4308433997495255</v>
+        <v>0.4328031638977312</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3130718888118972</v>
+        <v>0.3159206947436253</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.2445680572598014</v>
+        <v>0.2445680572598013</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.3716260290136255</v>
+        <v>0.3716260290136253</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.3001429498428747</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2227013690945279</v>
+        <v>0.2212170593555937</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3485037803928963</v>
+        <v>0.3520435131216661</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2849188121051863</v>
+        <v>0.2837627822115327</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2675566427360053</v>
+        <v>0.2678670212179993</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3938570046443919</v>
+        <v>0.3942815916625095</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.31699456781275</v>
+        <v>0.3169122264332886</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>91761</v>
+        <v>90721</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>91713</v>
+        <v>91450</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>191656</v>
+        <v>191149</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>128266</v>
+        <v>129516</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>120116</v>
+        <v>121259</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>238622</v>
+        <v>240511</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>53942</v>
+        <v>55757</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>76867</v>
+        <v>75276</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>138589</v>
+        <v>139645</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>86649</v>
+        <v>86589</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>104227</v>
+        <v>104730</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>182103</v>
+        <v>182254</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>56882</v>
+        <v>57781</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>31738</v>
+        <v>31562</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>95066</v>
+        <v>94534</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>90284</v>
+        <v>89022</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>47332</v>
+        <v>46752</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>130358</v>
+        <v>131160</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>133705</v>
+        <v>134021</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>173224</v>
+        <v>173244</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>317928</v>
+        <v>318031</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>182396</v>
+        <v>183732</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>213795</v>
+        <v>210508</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>383763</v>
+        <v>383694</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>37041</v>
+        <v>36833</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>101036</v>
+        <v>102205</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>144640</v>
+        <v>147752</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>71127</v>
+        <v>70368</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>132252</v>
+        <v>132853</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>191953</v>
+        <v>193700</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>418806</v>
+        <v>416015</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>509534</v>
+        <v>514709</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>952379</v>
+        <v>948515</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>503160</v>
+        <v>503743</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>575843</v>
+        <v>576464</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1059597</v>
+        <v>1059322</v>
       </c>
     </row>
     <row r="28">
